--- a/biology/Botanique/Dianthus/Dianthus.xlsx
+++ b/biology/Botanique/Dianthus/Dianthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus est un genre de plantes de la famille des Caryophyllaceae. C'est le genre des œillets véritables.
 Ce sont des plantes herbacées, plusieurs espèces sont utilisées comme plantes ornementales. Elles sont originaires en grande partie d'Europe, d'Asie et d'Afrique du Nord. Dianthus repens vit quant à elle en zone subarctique.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Dianthus » est formé à partir des mots grecs « Dios » (Zeus, Jupiter) et  « anthos » (fleur) et signifie « fleur des Dieux», hommage rendu à la beauté de ces fleurs. Il doit son nom latinisé à Théophraste[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Dianthus » est formé à partir des mots grecs « Dios » (Zeus, Jupiter) et  « anthos » (fleur) et signifie « fleur des Dieux», hommage rendu à la beauté de ces fleurs. Il doit son nom latinisé à Théophraste.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Espèces réputées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dianthus armeria
@@ -583,8 +599,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Espèces hybrides
-Dianthus ×allwoodii hort. (Dianthus plumarius × Dianthus caryophyllus)
+          <t>Espèces hybrides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dianthus ×allwoodii hort. (Dianthus plumarius × Dianthus caryophyllus)
 Dianthus ×aschersonii M.Schulze ex Graebn.
 Dianthus ×borderei Rouy &amp; Foucaud
 Dianthus ×bottemeri Bouchard
